--- a/Synoptic/Data/2021-02/202102_GHG_Key.xlsx
+++ b/Synoptic/Data/2021-02/202102_GHG_Key.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla López Lloreda\Dropbox\Grad school\Research\Delmarva project\Data\Synoptic\Data\2021-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla López Lloreda\Dropbox\Grad school\Research\Delmarva project\Projects\Synoptic\Data\2021-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2266CF1A-E567-4303-9681-4D7A034F44A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E6640C-0FA6-4F81-95AD-032AA52DA709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{38FA2F06-98F9-484C-9E5A-9DDA4CAAD6BC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="199">
   <si>
     <t>AG-SW</t>
   </si>
@@ -590,6 +590,48 @@
   </si>
   <si>
     <t>dd-2102-118</t>
+  </si>
+  <si>
+    <t>dd-2102-055</t>
+  </si>
+  <si>
+    <t>dd-2102-056</t>
+  </si>
+  <si>
+    <t>dd-2102-057</t>
+  </si>
+  <si>
+    <t>dd-2102-058</t>
+  </si>
+  <si>
+    <t>dd-2102-059</t>
+  </si>
+  <si>
+    <t>dd-2102-060</t>
+  </si>
+  <si>
+    <t>dd-2102-061</t>
+  </si>
+  <si>
+    <t>dd-2102-062</t>
+  </si>
+  <si>
+    <t>dd-2102-063</t>
+  </si>
+  <si>
+    <t>dd-2102-064</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>BCN</t>
+  </si>
+  <si>
+    <t>Jones Rd Air</t>
+  </si>
+  <si>
+    <t>Air_Location</t>
   </si>
 </sst>
 </file>
@@ -652,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -662,6 +704,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C81E5CE-91BB-4950-9A9B-B51DE114D908}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,7 +1069,7 @@
         <v>50</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>51</v>
@@ -1051,7 +1095,7 @@
         <v>20210225</v>
       </c>
       <c r="E2" t="str">
-        <f>_xlfn.CONCAT(A2,"-",B2,"-",C2,"-",D2)</f>
+        <f t="shared" ref="E2:E33" si="0">_xlfn.CONCAT(A2,"-",B2,"-",C2,"-",D2)</f>
         <v>AG-SW-GHG-R1-20210225</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -1084,7 +1128,7 @@
         <v>20210225</v>
       </c>
       <c r="E3" t="str">
-        <f>_xlfn.CONCAT(A3,"-",B3,"-",C3,"-",D3)</f>
+        <f t="shared" si="0"/>
         <v>AG-SW-GHG-R2-20210225</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1117,7 +1161,7 @@
         <v>20210225</v>
       </c>
       <c r="E4" t="str">
-        <f>_xlfn.CONCAT(A4,"-",B4,"-",C4,"-",D4)</f>
+        <f t="shared" si="0"/>
         <v>AG-SW-GHG-R3-20210225</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1150,7 +1194,7 @@
         <v>20210224</v>
       </c>
       <c r="E5" t="str">
-        <f>_xlfn.CONCAT(A5,"-",B5,"-",C5,"-",D5)</f>
+        <f t="shared" si="0"/>
         <v>BD-SW-GHG-R1-20210224</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1183,7 +1227,7 @@
         <v>20210224</v>
       </c>
       <c r="E6" t="str">
-        <f>_xlfn.CONCAT(A6,"-",B6,"-",C6,"-",D6)</f>
+        <f t="shared" si="0"/>
         <v>BD-SW-GHG-R2-20210224</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1216,7 +1260,7 @@
         <v>20210224</v>
       </c>
       <c r="E7" t="str">
-        <f>_xlfn.CONCAT(A7,"-",B7,"-",C7,"-",D7)</f>
+        <f t="shared" si="0"/>
         <v>BD-SW-GHG-R3-20210224</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1249,7 +1293,7 @@
         <v>20210224</v>
       </c>
       <c r="E8" t="str">
-        <f>_xlfn.CONCAT(A8,"-",B8,"-",C8,"-",D8)</f>
+        <f t="shared" si="0"/>
         <v>BD-CH-GHG-R1-20210224</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1282,7 +1326,7 @@
         <v>20210224</v>
       </c>
       <c r="E9" t="str">
-        <f>_xlfn.CONCAT(A9,"-",B9,"-",C9,"-",D9)</f>
+        <f t="shared" si="0"/>
         <v>BD-CH-GHG-R2-20210224</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1315,7 +1359,7 @@
         <v>20210224</v>
       </c>
       <c r="E10" t="str">
-        <f>_xlfn.CONCAT(A10,"-",B10,"-",C10,"-",D10)</f>
+        <f t="shared" si="0"/>
         <v>BD-CH-GHG-R3-20210224</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1348,7 +1392,7 @@
         <v>20210225</v>
       </c>
       <c r="E11" t="str">
-        <f>_xlfn.CONCAT(A11,"-",B11,"-",C11,"-",D11)</f>
+        <f t="shared" si="0"/>
         <v>CR-SW-GHG-R1-20210225</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1381,7 +1425,7 @@
         <v>20210225</v>
       </c>
       <c r="E12" t="str">
-        <f>_xlfn.CONCAT(A12,"-",B12,"-",C12,"-",D12)</f>
+        <f t="shared" si="0"/>
         <v>CR-SW-GHG-R2-20210225</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1414,7 +1458,7 @@
         <v>20210225</v>
       </c>
       <c r="E13" t="str">
-        <f>_xlfn.CONCAT(A13,"-",B13,"-",C13,"-",D13)</f>
+        <f t="shared" si="0"/>
         <v>CR-SW-GHG-R3-20210225</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1447,7 +1491,7 @@
         <v>20210225</v>
       </c>
       <c r="E14" t="str">
-        <f>_xlfn.CONCAT(A14,"-",B14,"-",C14,"-",D14)</f>
+        <f t="shared" si="0"/>
         <v>DB-SW-GHG-R1-20210225</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1480,7 +1524,7 @@
         <v>20210225</v>
       </c>
       <c r="E15" t="str">
-        <f>_xlfn.CONCAT(A15,"-",B15,"-",C15,"-",D15)</f>
+        <f t="shared" si="0"/>
         <v>DB-SW-GHG-R2-20210225</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1513,7 +1557,7 @@
         <v>20210225</v>
       </c>
       <c r="E16" t="str">
-        <f>_xlfn.CONCAT(A16,"-",B16,"-",C16,"-",D16)</f>
+        <f t="shared" si="0"/>
         <v>DB-SW-GHG-R3-20210225</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1546,7 +1590,7 @@
         <v>20210225</v>
       </c>
       <c r="E17" t="str">
-        <f>_xlfn.CONCAT(A17,"-",B17,"-",C17,"-",D17)</f>
+        <f t="shared" si="0"/>
         <v>DB-UW1-GHG-R1-20210225</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1579,7 +1623,7 @@
         <v>20210225</v>
       </c>
       <c r="E18" t="str">
-        <f>_xlfn.CONCAT(A18,"-",B18,"-",C18,"-",D18)</f>
+        <f t="shared" si="0"/>
         <v>DB-UW1-GHG-R2-20210225</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -1612,7 +1656,7 @@
         <v>20210225</v>
       </c>
       <c r="E19" t="str">
-        <f>_xlfn.CONCAT(A19,"-",B19,"-",C19,"-",D19)</f>
+        <f t="shared" si="0"/>
         <v>DB-UW1-GHG-R3-20210225</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1645,7 +1689,7 @@
         <v>20210226</v>
       </c>
       <c r="E20" t="str">
-        <f>_xlfn.CONCAT(A20,"-",B20,"-",C20,"-",D20)</f>
+        <f t="shared" si="0"/>
         <v>DF-SW-GHG-R1-20210226</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -1678,7 +1722,7 @@
         <v>20210226</v>
       </c>
       <c r="E21" t="str">
-        <f>_xlfn.CONCAT(A21,"-",B21,"-",C21,"-",D21)</f>
+        <f t="shared" si="0"/>
         <v>DF-SW-GHG-R2-20210226</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -1711,7 +1755,7 @@
         <v>20210226</v>
       </c>
       <c r="E22" t="str">
-        <f>_xlfn.CONCAT(A22,"-",B22,"-",C22,"-",D22)</f>
+        <f t="shared" si="0"/>
         <v>DF-SW-GHG-R3-20210226</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -1744,7 +1788,7 @@
         <v>20210224</v>
       </c>
       <c r="E23" t="str">
-        <f>_xlfn.CONCAT(A23,"-",B23,"-",C23,"-",D23)</f>
+        <f t="shared" si="0"/>
         <v>DK-SW-GHG-R1-20210224</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -1777,7 +1821,7 @@
         <v>20210224</v>
       </c>
       <c r="E24" t="str">
-        <f>_xlfn.CONCAT(A24,"-",B24,"-",C24,"-",D24)</f>
+        <f t="shared" si="0"/>
         <v>DK-SW-GHG-R2-20210224</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -1810,7 +1854,7 @@
         <v>20210224</v>
       </c>
       <c r="E25" t="str">
-        <f>_xlfn.CONCAT(A25,"-",B25,"-",C25,"-",D25)</f>
+        <f t="shared" si="0"/>
         <v>DK-SW-GHG-R3-20210224</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -1843,7 +1887,7 @@
         <v>20210224</v>
       </c>
       <c r="E26" t="str">
-        <f>_xlfn.CONCAT(A26,"-",B26,"-",C26,"-",D26)</f>
+        <f t="shared" si="0"/>
         <v>DK-CH-GHG-R1-20210224</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -1879,7 +1923,7 @@
         <v>20210224</v>
       </c>
       <c r="E27" t="str">
-        <f>_xlfn.CONCAT(A27,"-",B27,"-",C27,"-",D27)</f>
+        <f t="shared" si="0"/>
         <v>DK-CH-GHG-R2-20210224</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -1915,7 +1959,7 @@
         <v>20210224</v>
       </c>
       <c r="E28" t="str">
-        <f>_xlfn.CONCAT(A28,"-",B28,"-",C28,"-",D28)</f>
+        <f t="shared" si="0"/>
         <v>DK-CH-GHG-R3-20210224</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -1951,7 +1995,7 @@
         <v>20210224</v>
       </c>
       <c r="E29" t="str">
-        <f>_xlfn.CONCAT(A29,"-",B29,"-",C29,"-",D29)</f>
+        <f t="shared" si="0"/>
         <v>DK-UW1-GHG-R1-20210224</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -1984,7 +2028,7 @@
         <v>20210224</v>
       </c>
       <c r="E30" t="str">
-        <f>_xlfn.CONCAT(A30,"-",B30,"-",C30,"-",D30)</f>
+        <f t="shared" si="0"/>
         <v>DK-UW1-GHG-R2-20210224</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -2017,7 +2061,7 @@
         <v>20210224</v>
       </c>
       <c r="E31" t="str">
-        <f>_xlfn.CONCAT(A31,"-",B31,"-",C31,"-",D31)</f>
+        <f t="shared" si="0"/>
         <v>DK-UW1-GHG-R3-20210224</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -2050,7 +2094,7 @@
         <v>20210224</v>
       </c>
       <c r="E32" t="str">
-        <f>_xlfn.CONCAT(A32,"-",B32,"-",C32,"-",D32)</f>
+        <f t="shared" si="0"/>
         <v>DK-UW2-GHG-R1-20210224</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -2083,7 +2127,7 @@
         <v>20210224</v>
       </c>
       <c r="E33" t="str">
-        <f>_xlfn.CONCAT(A33,"-",B33,"-",C33,"-",D33)</f>
+        <f t="shared" si="0"/>
         <v>DK-UW2-GHG-R2-20210224</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -2116,7 +2160,7 @@
         <v>20210224</v>
       </c>
       <c r="E34" t="str">
-        <f>_xlfn.CONCAT(A34,"-",B34,"-",C34,"-",D34)</f>
+        <f t="shared" ref="E34:E74" si="1">_xlfn.CONCAT(A34,"-",B34,"-",C34,"-",D34)</f>
         <v>DK-UW2-GHG-R3-20210224</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -2149,7 +2193,7 @@
         <v>20210225</v>
       </c>
       <c r="E35" t="str">
-        <f>_xlfn.CONCAT(A35,"-",B35,"-",C35,"-",D35)</f>
+        <f t="shared" si="1"/>
         <v>FN-SW-GHG-R1-20210225</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -2182,7 +2226,7 @@
         <v>20210225</v>
       </c>
       <c r="E36" t="str">
-        <f>_xlfn.CONCAT(A36,"-",B36,"-",C36,"-",D36)</f>
+        <f t="shared" si="1"/>
         <v>FN-SW-GHG-R2-20210225</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -2215,7 +2259,7 @@
         <v>20210225</v>
       </c>
       <c r="E37" t="str">
-        <f>_xlfn.CONCAT(A37,"-",B37,"-",C37,"-",D37)</f>
+        <f t="shared" si="1"/>
         <v>FN-SW-GHG-R3-20210225</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -2248,7 +2292,7 @@
         <v>20210226</v>
       </c>
       <c r="E38" t="str">
-        <f>_xlfn.CONCAT(A38,"-",B38,"-",C38,"-",D38)</f>
+        <f t="shared" si="1"/>
         <v>JA-SW-GHG-R1-20210226</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -2281,7 +2325,7 @@
         <v>20210226</v>
       </c>
       <c r="E39" t="str">
-        <f>_xlfn.CONCAT(A39,"-",B39,"-",C39,"-",D39)</f>
+        <f t="shared" si="1"/>
         <v>JA-SW-GHG-R2-20210226</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -2314,7 +2358,7 @@
         <v>20210226</v>
       </c>
       <c r="E40" t="str">
-        <f>_xlfn.CONCAT(A40,"-",B40,"-",C40,"-",D40)</f>
+        <f t="shared" si="1"/>
         <v>JA-SW-GHG-R3-20210226</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -2347,7 +2391,7 @@
         <v>20210226</v>
       </c>
       <c r="E41" t="str">
-        <f>_xlfn.CONCAT(A41,"-",B41,"-",C41,"-",D41)</f>
+        <f t="shared" si="1"/>
         <v>JB-SW-GHG-R1-20210226</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -2380,7 +2424,7 @@
         <v>20210226</v>
       </c>
       <c r="E42" t="str">
-        <f>_xlfn.CONCAT(A42,"-",B42,"-",C42,"-",D42)</f>
+        <f t="shared" si="1"/>
         <v>JB-SW-GHG-R2-20210226</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -2413,7 +2457,7 @@
         <v>20210226</v>
       </c>
       <c r="E43" t="str">
-        <f>_xlfn.CONCAT(A43,"-",B43,"-",C43,"-",D43)</f>
+        <f t="shared" si="1"/>
         <v>JB-SW-GHG-R3-20210226</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -2446,7 +2490,7 @@
         <v>20210226</v>
       </c>
       <c r="E44" t="str">
-        <f>_xlfn.CONCAT(A44,"-",B44,"-",C44,"-",D44)</f>
+        <f t="shared" si="1"/>
         <v>JB-UW1-GHG-R1-20210226</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -2479,7 +2523,7 @@
         <v>20210226</v>
       </c>
       <c r="E45" t="str">
-        <f>_xlfn.CONCAT(A45,"-",B45,"-",C45,"-",D45)</f>
+        <f t="shared" si="1"/>
         <v>JB-UW1-GHG-R2-20210226</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -2512,7 +2556,7 @@
         <v>20210226</v>
       </c>
       <c r="E46" t="str">
-        <f>_xlfn.CONCAT(A46,"-",B46,"-",C46,"-",D46)</f>
+        <f t="shared" si="1"/>
         <v>JB-UW1-GHG-R3-20210226</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -2545,7 +2589,7 @@
         <v>20210226</v>
       </c>
       <c r="E47" t="str">
-        <f>_xlfn.CONCAT(A47,"-",B47,"-",C47,"-",D47)</f>
+        <f t="shared" si="1"/>
         <v>JB-UW2-GHG-R1-20210226</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -2578,7 +2622,7 @@
         <v>20210226</v>
       </c>
       <c r="E48" t="str">
-        <f>_xlfn.CONCAT(A48,"-",B48,"-",C48,"-",D48)</f>
+        <f t="shared" si="1"/>
         <v>JB-UW2-GHG-R2-20210226</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -2611,7 +2655,7 @@
         <v>20210226</v>
       </c>
       <c r="E49" t="str">
-        <f>_xlfn.CONCAT(A49,"-",B49,"-",C49,"-",D49)</f>
+        <f t="shared" si="1"/>
         <v>JB-UW2-GHG-R3-20210226</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -2644,7 +2688,7 @@
         <v>20210226</v>
       </c>
       <c r="E50" t="str">
-        <f>_xlfn.CONCAT(A50,"-",B50,"-",C50,"-",D50)</f>
+        <f t="shared" si="1"/>
         <v>JC-SW-GHG-R1-20210226</v>
       </c>
       <c r="F50" s="6" t="s">
@@ -2677,7 +2721,7 @@
         <v>20210226</v>
       </c>
       <c r="E51" t="str">
-        <f>_xlfn.CONCAT(A51,"-",B51,"-",C51,"-",D51)</f>
+        <f t="shared" si="1"/>
         <v>JC-SW-GHG-R2-20210226</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -2710,7 +2754,7 @@
         <v>20210226</v>
       </c>
       <c r="E52" t="str">
-        <f>_xlfn.CONCAT(A52,"-",B52,"-",C52,"-",D52)</f>
+        <f t="shared" si="1"/>
         <v>JC-SW-GHG-R3-20210226</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -2743,7 +2787,7 @@
         <v>20210226</v>
       </c>
       <c r="E53" t="str">
-        <f>_xlfn.CONCAT(A53,"-",B53,"-",C53,"-",D53)</f>
+        <f t="shared" si="1"/>
         <v>JC-UW1-GHG-R1-20210226</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -2776,7 +2820,7 @@
         <v>20210226</v>
       </c>
       <c r="E54" t="str">
-        <f>_xlfn.CONCAT(A54,"-",B54,"-",C54,"-",D54)</f>
+        <f t="shared" si="1"/>
         <v>JC-UW1-GHG-R2-20210226</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -2809,7 +2853,7 @@
         <v>20210226</v>
       </c>
       <c r="E55" t="str">
-        <f>_xlfn.CONCAT(A55,"-",B55,"-",C55,"-",D55)</f>
+        <f t="shared" si="1"/>
         <v>JC-UW1-GHG-R3-20210226</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -2829,309 +2873,158 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="F56" s="6"/>
+      <c r="A56" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
+      <c r="A57" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>20210226</v>
-      </c>
-      <c r="E57" t="str">
-        <f>_xlfn.CONCAT(A57,"-",B57,"-",C57,"-",D57)</f>
-        <v>NB-SW-GHG-R1-20210226</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E57" s="7"/>
       <c r="F57" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5.2</v>
+        <v>186</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1</v>
+      <c r="A58" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58">
-        <v>20210226</v>
-      </c>
-      <c r="E58" t="str">
-        <f>_xlfn.CONCAT(A58,"-",B58,"-",C58,"-",D58)</f>
-        <v>NB-SW-GHG-R2-20210226</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E58" s="7"/>
       <c r="F58" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5.2</v>
+        <v>187</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
+      <c r="A59" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59">
-        <v>20210226</v>
-      </c>
-      <c r="E59" t="str">
-        <f>_xlfn.CONCAT(A59,"-",B59,"-",C59,"-",D59)</f>
-        <v>NB-SW-GHG-R3-20210226</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E59" s="7"/>
       <c r="F59" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I59" s="3">
-        <v>5.2</v>
+        <v>188</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
+      <c r="A60" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>20210224</v>
-      </c>
-      <c r="E60" t="str">
-        <f>_xlfn.CONCAT(A60,"-",B60,"-",C60,"-",D60)</f>
-        <v>ND-SW-GHG-R1-20210224</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E60" s="7"/>
       <c r="F60" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I60" s="3">
-        <v>5.7</v>
+        <v>189</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
+      <c r="A61" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61">
-        <v>20210224</v>
-      </c>
-      <c r="E61" t="str">
-        <f>_xlfn.CONCAT(A61,"-",B61,"-",C61,"-",D61)</f>
-        <v>ND-SW-GHG-R2-20210224</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E61" s="7"/>
       <c r="F61" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I61" s="3">
-        <v>5.7</v>
+        <v>190</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
+      <c r="A62" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62">
-        <v>20210224</v>
-      </c>
-      <c r="E62" t="str">
-        <f>_xlfn.CONCAT(A62,"-",B62,"-",C62,"-",D62)</f>
-        <v>ND-SW-GHG-R3-20210224</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E62" s="7"/>
       <c r="F62" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I62" s="3">
-        <v>5.7</v>
+        <v>191</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1</v>
+      <c r="A63" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>20210224</v>
-      </c>
-      <c r="E63" t="str">
-        <f>_xlfn.CONCAT(A63,"-",B63,"-",C63,"-",D63)</f>
-        <v>ND-UW1-GHG-R1-20210224</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E63" s="7"/>
       <c r="F63" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I63" s="3">
-        <v>8.5</v>
+        <v>192</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
+      <c r="A64" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64">
-        <v>20210224</v>
-      </c>
-      <c r="E64" t="str">
-        <f>_xlfn.CONCAT(A64,"-",B64,"-",C64,"-",D64)</f>
-        <v>ND-UW1-GHG-R2-20210224</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E64" s="7"/>
       <c r="F64" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I64" s="3">
-        <v>8.5</v>
+        <v>193</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1</v>
+      <c r="A65" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65">
-        <v>20210224</v>
-      </c>
-      <c r="E65" t="str">
-        <f>_xlfn.CONCAT(A65,"-",B65,"-",C65,"-",D65)</f>
-        <v>ND-UW1-GHG-R3-20210224</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E65" s="7"/>
       <c r="F65" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I65" s="3">
-        <v>8.5</v>
+        <v>194</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -3140,20 +3033,20 @@
         <v>2</v>
       </c>
       <c r="D66">
-        <v>20210224</v>
+        <v>20210226</v>
       </c>
       <c r="E66" t="str">
-        <f>_xlfn.CONCAT(A66,"-",B66,"-",C66,"-",D66)</f>
-        <v>ND-UW2-GHG-R1-20210224</v>
+        <f t="shared" ref="E66:E97" si="2">_xlfn.CONCAT(A66,"-",B66,"-",C66,"-",D66)</f>
+        <v>NB-SW-GHG-R1-20210226</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I66" s="3">
-        <v>8.9</v>
+        <v>5.2</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -3164,7 +3057,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -3173,20 +3066,20 @@
         <v>33</v>
       </c>
       <c r="D67">
-        <v>20210224</v>
+        <v>20210226</v>
       </c>
       <c r="E67" t="str">
-        <f>_xlfn.CONCAT(A67,"-",B67,"-",C67,"-",D67)</f>
-        <v>ND-UW2-GHG-R2-20210224</v>
+        <f t="shared" si="2"/>
+        <v>NB-SW-GHG-R2-20210226</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I67" s="3">
-        <v>8.9</v>
+        <v>5.2</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -3197,7 +3090,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -3206,20 +3099,20 @@
         <v>34</v>
       </c>
       <c r="D68">
-        <v>20210224</v>
+        <v>20210226</v>
       </c>
       <c r="E68" t="str">
-        <f>_xlfn.CONCAT(A68,"-",B68,"-",C68,"-",D68)</f>
-        <v>ND-UW2-GHG-R3-20210224</v>
+        <f t="shared" si="2"/>
+        <v>NB-SW-GHG-R3-20210226</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I68" s="3">
-        <v>8.9</v>
+        <v>5.2</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3230,7 +3123,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -3242,14 +3135,14 @@
         <v>20210224</v>
       </c>
       <c r="E69" t="str">
-        <f>_xlfn.CONCAT(A69,"-",B69,"-",C69,"-",D69)</f>
-        <v>ND-UW3-GHG-R1-20210224</v>
+        <f t="shared" si="2"/>
+        <v>ND-SW-GHG-R1-20210224</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I69" s="3">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>56</v>
@@ -3263,7 +3156,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -3275,14 +3168,14 @@
         <v>20210224</v>
       </c>
       <c r="E70" t="str">
-        <f>_xlfn.CONCAT(A70,"-",B70,"-",C70,"-",D70)</f>
-        <v>ND-UW3-GHG-R2-20210224</v>
+        <f t="shared" si="2"/>
+        <v>ND-SW-GHG-R2-20210224</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I70" s="3">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>56</v>
@@ -3296,7 +3189,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -3308,14 +3201,14 @@
         <v>20210224</v>
       </c>
       <c r="E71" t="str">
-        <f>_xlfn.CONCAT(A71,"-",B71,"-",C71,"-",D71)</f>
-        <v>ND-UW3-GHG-R3-20210224</v>
+        <f t="shared" si="2"/>
+        <v>ND-SW-GHG-R3-20210224</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I71" s="3">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>56</v>
@@ -3329,7 +3222,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -3338,20 +3231,20 @@
         <v>2</v>
       </c>
       <c r="D72">
-        <v>20210226</v>
+        <v>20210224</v>
       </c>
       <c r="E72" t="str">
-        <f>_xlfn.CONCAT(A72,"-",B72,"-",C72,"-",D72)</f>
-        <v>QB-SW-GHG-R1-20210226</v>
+        <f t="shared" si="2"/>
+        <v>ND-UW1-GHG-R1-20210224</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I72" s="3">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -3362,7 +3255,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -3371,20 +3264,20 @@
         <v>33</v>
       </c>
       <c r="D73">
-        <v>20210226</v>
+        <v>20210224</v>
       </c>
       <c r="E73" t="str">
-        <f>_xlfn.CONCAT(A73,"-",B73,"-",C73,"-",D73)</f>
-        <v>QB-SW-GHG-R2-20210226</v>
+        <f t="shared" si="2"/>
+        <v>ND-UW1-GHG-R2-20210224</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I73" s="3">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -3395,7 +3288,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -3404,20 +3297,20 @@
         <v>34</v>
       </c>
       <c r="D74">
-        <v>20210226</v>
+        <v>20210224</v>
       </c>
       <c r="E74" t="str">
-        <f>_xlfn.CONCAT(A74,"-",B74,"-",C74,"-",D74)</f>
-        <v>QB-SW-GHG-R3-20210226</v>
+        <f t="shared" si="2"/>
+        <v>ND-UW1-GHG-R3-20210224</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I74" s="3">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -3428,7 +3321,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
@@ -3437,20 +3330,20 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>20210226</v>
+        <v>20210224</v>
       </c>
       <c r="E75" t="str">
-        <f>_xlfn.CONCAT(A75,"-",B75,"-",C75,"-",D75)</f>
-        <v>QB-UW1-GHG-R1-20210226</v>
+        <f t="shared" si="2"/>
+        <v>ND-UW2-GHG-R1-20210224</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I75" s="3">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -3461,7 +3354,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -3470,20 +3363,20 @@
         <v>33</v>
       </c>
       <c r="D76">
-        <v>20210226</v>
+        <v>20210224</v>
       </c>
       <c r="E76" t="str">
-        <f>_xlfn.CONCAT(A76,"-",B76,"-",C76,"-",D76)</f>
-        <v>QB-UW1-GHG-R2-20210226</v>
+        <f t="shared" si="2"/>
+        <v>ND-UW2-GHG-R2-20210224</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="I76" s="3">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -3494,7 +3387,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -3503,20 +3396,20 @@
         <v>34</v>
       </c>
       <c r="D77">
-        <v>20210226</v>
+        <v>20210224</v>
       </c>
       <c r="E77" t="str">
-        <f>_xlfn.CONCAT(A77,"-",B77,"-",C77,"-",D77)</f>
-        <v>QB-UW1-GHG-R3-20210226</v>
+        <f t="shared" si="2"/>
+        <v>ND-UW2-GHG-R3-20210224</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="I77" s="3">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -3527,7 +3420,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -3536,31 +3429,31 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>20210226</v>
+        <v>20210224</v>
       </c>
       <c r="E78" t="str">
-        <f>_xlfn.CONCAT(A78,"-",B78,"-",C78,"-",D78)</f>
-        <v>QB-UW2-GHG-R1-20210226</v>
+        <f t="shared" si="2"/>
+        <v>ND-UW3-GHG-R1-20210224</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I78" s="3">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -3569,31 +3462,31 @@
         <v>33</v>
       </c>
       <c r="D79">
-        <v>20210226</v>
+        <v>20210224</v>
       </c>
       <c r="E79" t="str">
-        <f>_xlfn.CONCAT(A79,"-",B79,"-",C79,"-",D79)</f>
-        <v>QB-UW2-GHG-R2-20210226</v>
+        <f t="shared" si="2"/>
+        <v>ND-UW3-GHG-R2-20210224</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I79" s="3">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M79" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -3602,31 +3495,31 @@
         <v>34</v>
       </c>
       <c r="D80">
-        <v>20210226</v>
+        <v>20210224</v>
       </c>
       <c r="E80" t="str">
-        <f>_xlfn.CONCAT(A80,"-",B80,"-",C80,"-",D80)</f>
-        <v>QB-UW2-GHG-R3-20210226</v>
+        <f t="shared" si="2"/>
+        <v>ND-UW3-GHG-R3-20210224</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I80" s="3">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -3635,20 +3528,20 @@
         <v>2</v>
       </c>
       <c r="D81">
-        <v>20210225</v>
+        <v>20210226</v>
       </c>
       <c r="E81" t="str">
-        <f>_xlfn.CONCAT(A81,"-",B81,"-",C81,"-",D81)</f>
-        <v>TA-SW-GHG-R1-20210225</v>
+        <f t="shared" si="2"/>
+        <v>QB-SW-GHG-R1-20210226</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I81" s="3">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -3659,7 +3552,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
@@ -3668,20 +3561,20 @@
         <v>33</v>
       </c>
       <c r="D82">
-        <v>20210225</v>
+        <v>20210226</v>
       </c>
       <c r="E82" t="str">
-        <f>_xlfn.CONCAT(A82,"-",B82,"-",C82,"-",D82)</f>
-        <v>TA-SW-GHG-R2-20210225</v>
+        <f t="shared" si="2"/>
+        <v>QB-SW-GHG-R2-20210226</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I82" s="3">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -3692,7 +3585,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -3701,20 +3594,20 @@
         <v>34</v>
       </c>
       <c r="D83">
-        <v>20210225</v>
+        <v>20210226</v>
       </c>
       <c r="E83" t="str">
-        <f>_xlfn.CONCAT(A83,"-",B83,"-",C83,"-",D83)</f>
-        <v>TA-SW-GHG-R3-20210225</v>
+        <f t="shared" si="2"/>
+        <v>QB-SW-GHG-R3-20210226</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I83" s="3">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -3725,7 +3618,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -3734,20 +3627,20 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>20210225</v>
+        <v>20210226</v>
       </c>
       <c r="E84" t="str">
-        <f>_xlfn.CONCAT(A84,"-",B84,"-",C84,"-",D84)</f>
-        <v>TB-SW-GHG-R1-20210225</v>
+        <f t="shared" si="2"/>
+        <v>QB-UW1-GHG-R1-20210226</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I84" s="3">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -3758,7 +3651,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -3767,20 +3660,20 @@
         <v>33</v>
       </c>
       <c r="D85">
-        <v>20210225</v>
+        <v>20210226</v>
       </c>
       <c r="E85" t="str">
-        <f>_xlfn.CONCAT(A85,"-",B85,"-",C85,"-",D85)</f>
-        <v>TB-SW-GHG-R2-20210225</v>
+        <f t="shared" si="2"/>
+        <v>QB-UW1-GHG-R2-20210226</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I85" s="3">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -3791,7 +3684,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -3800,20 +3693,20 @@
         <v>34</v>
       </c>
       <c r="D86">
-        <v>20210225</v>
+        <v>20210226</v>
       </c>
       <c r="E86" t="str">
-        <f>_xlfn.CONCAT(A86,"-",B86,"-",C86,"-",D86)</f>
-        <v>TB-SW-GHG-R3-20210225</v>
+        <f t="shared" si="2"/>
+        <v>QB-UW1-GHG-R3-20210226</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I86" s="3">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -3824,7 +3717,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -3833,31 +3726,31 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <v>20210225</v>
+        <v>20210226</v>
       </c>
       <c r="E87" t="str">
-        <f>_xlfn.CONCAT(A87,"-",B87,"-",C87,"-",D87)</f>
-        <v>TB-UW1-GHG-R1-20210225</v>
+        <f t="shared" si="2"/>
+        <v>QB-UW2-GHG-R1-20210226</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I87" s="3">
-        <v>7.7</v>
+        <v>10.4</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -3866,31 +3759,31 @@
         <v>33</v>
       </c>
       <c r="D88">
-        <v>20210225</v>
+        <v>20210226</v>
       </c>
       <c r="E88" t="str">
-        <f>_xlfn.CONCAT(A88,"-",B88,"-",C88,"-",D88)</f>
-        <v>TB-UW1-GHG-R2-20210225</v>
+        <f t="shared" si="2"/>
+        <v>QB-UW2-GHG-R2-20210226</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I88" s="3">
-        <v>7.7</v>
+        <v>10.4</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -3899,31 +3792,31 @@
         <v>34</v>
       </c>
       <c r="D89">
-        <v>20210225</v>
+        <v>20210226</v>
       </c>
       <c r="E89" t="str">
-        <f>_xlfn.CONCAT(A89,"-",B89,"-",C89,"-",D89)</f>
-        <v>TB-UW1-GHG-R3-20210225</v>
+        <f t="shared" si="2"/>
+        <v>QB-UW2-GHG-R3-20210226</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I89" s="3">
-        <v>7.7</v>
+        <v>10.4</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -3935,14 +3828,14 @@
         <v>20210225</v>
       </c>
       <c r="E90" t="str">
-        <f>_xlfn.CONCAT(A90,"-",B90,"-",C90,"-",D90)</f>
-        <v>TB-UW2-GHG-R1-20210225</v>
+        <f t="shared" si="2"/>
+        <v>TA-SW-GHG-R1-20210225</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I90" s="3">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>58</v>
@@ -3956,7 +3849,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -3968,14 +3861,14 @@
         <v>20210225</v>
       </c>
       <c r="E91" t="str">
-        <f>_xlfn.CONCAT(A91,"-",B91,"-",C91,"-",D91)</f>
-        <v>TB-UW2-GHG-R2-20210225</v>
+        <f t="shared" si="2"/>
+        <v>TA-SW-GHG-R2-20210225</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I91" s="3">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>58</v>
@@ -3989,7 +3882,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -4001,14 +3894,14 @@
         <v>20210225</v>
       </c>
       <c r="E92" t="str">
-        <f>_xlfn.CONCAT(A92,"-",B92,"-",C92,"-",D92)</f>
-        <v>TB-UW2-GHG-R3-20210225</v>
+        <f t="shared" si="2"/>
+        <v>TA-SW-GHG-R3-20210225</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I92" s="3">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>58</v>
@@ -4022,7 +3915,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
@@ -4034,14 +3927,14 @@
         <v>20210225</v>
       </c>
       <c r="E93" t="str">
-        <f>_xlfn.CONCAT(A93,"-",B93,"-",C93,"-",D93)</f>
-        <v>TB-UW3-GHG-R1-20210225</v>
+        <f t="shared" si="2"/>
+        <v>TB-SW-GHG-R1-20210225</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I93" s="3">
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>58</v>
@@ -4055,7 +3948,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -4067,14 +3960,14 @@
         <v>20210225</v>
       </c>
       <c r="E94" t="str">
-        <f>_xlfn.CONCAT(A94,"-",B94,"-",C94,"-",D94)</f>
-        <v>TB-UW3-GHG-R2-20210225</v>
+        <f t="shared" si="2"/>
+        <v>TB-SW-GHG-R2-20210225</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I94" s="3">
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>58</v>
@@ -4088,7 +3981,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
@@ -4100,14 +3993,14 @@
         <v>20210225</v>
       </c>
       <c r="E95" t="str">
-        <f>_xlfn.CONCAT(A95,"-",B95,"-",C95,"-",D95)</f>
-        <v>TB-UW3-GHG-R3-20210225</v>
+        <f t="shared" si="2"/>
+        <v>TB-SW-GHG-R3-20210225</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I95" s="3">
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>58</v>
@@ -4121,7 +4014,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
         <v>1</v>
@@ -4130,20 +4023,20 @@
         <v>2</v>
       </c>
       <c r="D96">
-        <v>20210226</v>
+        <v>20210225</v>
       </c>
       <c r="E96" t="str">
-        <f>_xlfn.CONCAT(A96,"-",B96,"-",C96,"-",D96)</f>
-        <v>TI-SW-GHG-R1-20210226</v>
+        <f t="shared" si="2"/>
+        <v>TB-UW1-GHG-R1-20210225</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I96" s="3">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -4154,7 +4047,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
@@ -4163,20 +4056,20 @@
         <v>33</v>
       </c>
       <c r="D97">
-        <v>20210226</v>
+        <v>20210225</v>
       </c>
       <c r="E97" t="str">
-        <f>_xlfn.CONCAT(A97,"-",B97,"-",C97,"-",D97)</f>
-        <v>TI-SW-GHG-R2-20210226</v>
+        <f t="shared" si="2"/>
+        <v>TB-UW1-GHG-R2-20210225</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I97" s="3">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -4187,7 +4080,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -4196,20 +4089,20 @@
         <v>34</v>
       </c>
       <c r="D98">
-        <v>20210226</v>
+        <v>20210225</v>
       </c>
       <c r="E98" t="str">
-        <f>_xlfn.CONCAT(A98,"-",B98,"-",C98,"-",D98)</f>
-        <v>TI-SW-GHG-R3-20210226</v>
+        <f t="shared" ref="E98:E129" si="3">_xlfn.CONCAT(A98,"-",B98,"-",C98,"-",D98)</f>
+        <v>TB-UW1-GHG-R3-20210225</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I98" s="3">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -4220,7 +4113,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
@@ -4232,17 +4125,17 @@
         <v>20210225</v>
       </c>
       <c r="E99" t="str">
-        <f>_xlfn.CONCAT(A99,"-",B99,"-",C99,"-",D99)</f>
-        <v>TR-SW-GHG-R1-20210225</v>
+        <f t="shared" si="3"/>
+        <v>TB-UW2-GHG-R1-20210225</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I99" s="3">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -4253,7 +4146,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
         <v>1</v>
@@ -4265,17 +4158,17 @@
         <v>20210225</v>
       </c>
       <c r="E100" t="str">
-        <f>_xlfn.CONCAT(A100,"-",B100,"-",C100,"-",D100)</f>
-        <v>TR-SW-GHG-R2-20210225</v>
+        <f t="shared" si="3"/>
+        <v>TB-UW2-GHG-R2-20210225</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I100" s="3">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -4286,7 +4179,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
@@ -4298,17 +4191,17 @@
         <v>20210225</v>
       </c>
       <c r="E101" t="str">
-        <f>_xlfn.CONCAT(A101,"-",B101,"-",C101,"-",D101)</f>
-        <v>TR-SW-GHG-R3-20210225</v>
+        <f t="shared" si="3"/>
+        <v>TB-UW2-GHG-R3-20210225</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I101" s="3">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -4319,7 +4212,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -4328,20 +4221,20 @@
         <v>2</v>
       </c>
       <c r="D102">
-        <v>20210224</v>
+        <v>20210225</v>
       </c>
       <c r="E102" t="str">
-        <f>_xlfn.CONCAT(A102,"-",B102,"-",C102,"-",D102)</f>
-        <v>TS-SW-GHG-R1-20210224</v>
+        <f t="shared" si="3"/>
+        <v>TB-UW3-GHG-R1-20210225</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I102" s="3">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -4352,7 +4245,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -4361,20 +4254,20 @@
         <v>33</v>
       </c>
       <c r="D103">
-        <v>20210224</v>
+        <v>20210225</v>
       </c>
       <c r="E103" t="str">
-        <f>_xlfn.CONCAT(A103,"-",B103,"-",C103,"-",D103)</f>
-        <v>TS-SW-GHG-R2-20210224</v>
+        <f t="shared" si="3"/>
+        <v>TB-UW3-GHG-R2-20210225</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I103" s="3">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -4385,7 +4278,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B104" t="s">
         <v>1</v>
@@ -4394,20 +4287,20 @@
         <v>34</v>
       </c>
       <c r="D104">
-        <v>20210224</v>
+        <v>20210225</v>
       </c>
       <c r="E104" t="str">
-        <f>_xlfn.CONCAT(A104,"-",B104,"-",C104,"-",D104)</f>
-        <v>TS-SW-GHG-R3-20210224</v>
+        <f t="shared" si="3"/>
+        <v>TB-UW3-GHG-R3-20210225</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I104" s="3">
-        <v>4.2</v>
+        <v>9.5</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -4418,7 +4311,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B105" t="s">
         <v>1</v>
@@ -4427,31 +4320,31 @@
         <v>2</v>
       </c>
       <c r="D105">
-        <v>20210224</v>
+        <v>20210226</v>
       </c>
       <c r="E105" t="str">
-        <f>_xlfn.CONCAT(A105,"-",B105,"-",C105,"-",D105)</f>
-        <v>TS-CH-GHG-R1-20210224</v>
+        <f t="shared" si="3"/>
+        <v>TI-SW-GHG-R1-20210226</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I105" s="3">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B106" t="s">
         <v>1</v>
@@ -4460,31 +4353,31 @@
         <v>33</v>
       </c>
       <c r="D106">
-        <v>20210224</v>
+        <v>20210226</v>
       </c>
       <c r="E106" t="str">
-        <f>_xlfn.CONCAT(A106,"-",B106,"-",C106,"-",D106)</f>
-        <v>TS-CH-GHG-R2-20210224</v>
+        <f t="shared" si="3"/>
+        <v>TI-SW-GHG-R2-20210226</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I106" s="3">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B107" t="s">
         <v>1</v>
@@ -4493,31 +4386,31 @@
         <v>34</v>
       </c>
       <c r="D107">
-        <v>20210224</v>
+        <v>20210226</v>
       </c>
       <c r="E107" t="str">
-        <f>_xlfn.CONCAT(A107,"-",B107,"-",C107,"-",D107)</f>
-        <v>TS-CH-GHG-R3-20210224</v>
+        <f t="shared" si="3"/>
+        <v>TI-SW-GHG-R3-20210226</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I107" s="3">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B108" t="s">
         <v>1</v>
@@ -4526,31 +4419,31 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>20210224</v>
+        <v>20210225</v>
       </c>
       <c r="E108" t="str">
-        <f>_xlfn.CONCAT(A108,"-",B108,"-",C108,"-",D108)</f>
-        <v>TS-UW1-GHG-R1-20210224</v>
+        <f t="shared" si="3"/>
+        <v>TR-SW-GHG-R1-20210225</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="I108" s="3">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B109" t="s">
         <v>1</v>
@@ -4559,31 +4452,31 @@
         <v>33</v>
       </c>
       <c r="D109">
-        <v>20210224</v>
+        <v>20210225</v>
       </c>
       <c r="E109" t="str">
-        <f>_xlfn.CONCAT(A109,"-",B109,"-",C109,"-",D109)</f>
-        <v>TS-UW1-GHG-R2-20210224</v>
+        <f t="shared" si="3"/>
+        <v>TR-SW-GHG-R2-20210225</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="I109" s="3">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B110" t="s">
         <v>1</v>
@@ -4592,64 +4485,361 @@
         <v>34</v>
       </c>
       <c r="D110">
+        <v>20210225</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="3"/>
+        <v>TR-SW-GHG-R3-20210225</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I110" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111">
         <v>20210224</v>
       </c>
-      <c r="E110" t="str">
-        <f>_xlfn.CONCAT(A110,"-",B110,"-",C110,"-",D110)</f>
+      <c r="E111" t="str">
+        <f t="shared" si="3"/>
+        <v>TS-SW-GHG-R1-20210224</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I111" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112">
+        <v>20210224</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="3"/>
+        <v>TS-SW-GHG-R2-20210224</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I112" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113">
+        <v>20210224</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="3"/>
+        <v>TS-SW-GHG-R3-20210224</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I113" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>20210224</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="3"/>
+        <v>TS-CH-GHG-R1-20210224</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I114" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115">
+        <v>20210224</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="3"/>
+        <v>TS-CH-GHG-R2-20210224</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I115" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116">
+        <v>20210224</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="3"/>
+        <v>TS-CH-GHG-R3-20210224</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I116" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>20210224</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="3"/>
+        <v>TS-UW1-GHG-R1-20210224</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I117" s="3">
+        <v>8</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118">
+        <v>20210224</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="3"/>
+        <v>TS-UW1-GHG-R2-20210224</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I118" s="3">
+        <v>8</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119">
+        <v>20210224</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="3"/>
         <v>TS-UW1-GHG-R3-20210224</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F119" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I110" s="3">
+      <c r="I119" s="3">
         <v>8</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="J119" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L110">
-        <v>1</v>
-      </c>
-      <c r="M110" t="s">
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F111" s="6"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F112" s="6"/>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F113" s="6"/>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F114" s="6"/>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F115" s="6"/>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F116" s="6"/>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F117" s="6"/>
-    </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F118" s="6"/>
-    </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F119" s="6"/>
-    </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F121" s="6"/>
     </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F130" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M121">
-    <sortCondition ref="F2:F121"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M130">
+    <sortCondition ref="F2:F130"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
